--- a/output/below_50/tRNA-iMet-CAT-1-5.xlsx
+++ b/output/below_50/tRNA-iMet-CAT-1-5.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="69">
   <si>
     <t>chr6</t>
   </si>
@@ -219,42 +219,6 @@
   </si>
   <si>
     <t>54</t>
-  </si>
-  <si>
-    <t>27300817</t>
-  </si>
-  <si>
-    <t>27300840</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>27300820</t>
-  </si>
-  <si>
-    <t>80,80,80</t>
-  </si>
-  <si>
-    <t>CGCTTAGCAGAGTGGCGCAG</t>
-  </si>
-  <si>
-    <t>CGG</t>
-  </si>
-  <si>
-    <t>81% (60)</t>
-  </si>
-  <si>
-    <t>77% (59)</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 45, Doench 2016: 81%, Moreno-Mateos: 77%</t>
-  </si>
-  <si>
-    <t>1.80404E+11</t>
   </si>
 </sst>
 </file>
@@ -299,7 +263,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -777,65 +741,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" t="s">
-        <v>73</v>
-      </c>
-      <c r="I9" t="s">
-        <v>73</v>
-      </c>
-      <c r="J9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" t="s">
-        <v>74</v>
-      </c>
-      <c r="L9" t="s">
-        <v>75</v>
-      </c>
-      <c r="M9" t="s">
-        <v>71</v>
-      </c>
-      <c r="N9" t="s">
-        <v>76</v>
-      </c>
-      <c r="O9" t="s">
-        <v>77</v>
-      </c>
-      <c r="P9" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>57</v>
-      </c>
-      <c r="R9" t="s">
-        <v>79</v>
-      </c>
-      <c r="S9" t="s">
-        <v>80</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
